--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1FB71E-26B4-4D5C-B86E-389AABA7A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DC800-70F9-44C4-A1A9-8DF3D23940E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="829">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3383,18 +3383,6 @@
   </si>
   <si>
     <t>Analyze</t>
-  </si>
-  <si>
-    <t>Illumina MiniSeq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5 XL</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アレイデータを Analysis に移行、Analysis filetype 追加、Experiment Instrument model 追加</t>
@@ -3621,14 +3609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Illumina NovaSeq 6000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Illumina iSeq 100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Data/Analysis オブジェクトに登録するファイル名に空白を含めないでください。</t>
     <rPh sb="21" eb="23">
       <t>トウロク</t>
@@ -4261,6 +4241,86 @@
   <si>
     <t>ICD-10 code</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/xx/xx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA xsd 1.3.0 に対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illumina iSeq 100</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina MiniSeq</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 XL</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -4788,107 +4848,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="14" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.6">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.6">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="17"/>
       <c r="B20" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4896,32 +4956,32 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A27" s="7">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>580</v>
       </c>
@@ -4929,7 +4989,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>590</v>
       </c>
@@ -4937,7 +4997,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>593</v>
       </c>
@@ -4945,7 +5005,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>644</v>
       </c>
@@ -4953,7 +5013,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>649</v>
       </c>
@@ -4961,7 +5021,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>686</v>
       </c>
@@ -4969,52 +5029,60 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B36" s="7">
         <v>42935</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B37" s="7">
         <v>43227</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B38" s="7">
         <v>44103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B39" s="7">
         <v>44622</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B40" s="7">
         <v>44678</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B41" s="7">
         <v>44918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -5035,32 +5103,32 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" s="22" t="s">
         <v>243</v>
       </c>
@@ -5104,18 +5172,18 @@
         <v>633</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>653</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>271</v>
@@ -5136,7 +5204,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5154,18 +5222,18 @@
         <v>607</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>654</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>272</v>
@@ -5192,7 +5260,7 @@
         <v>699</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>570</v>
@@ -5204,15 +5272,15 @@
         <v>608</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>273</v>
@@ -5233,7 +5301,7 @@
         <v>700</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>571</v>
@@ -5242,12 +5310,12 @@
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>274</v>
@@ -5277,12 +5345,12 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>275</v>
@@ -5309,12 +5377,12 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>276</v>
@@ -5341,12 +5409,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>277</v>
@@ -5373,12 +5441,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>650</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>285</v>
@@ -5387,7 +5455,7 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>704</v>
@@ -5402,12 +5470,12 @@
         <v>614</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>286</v>
@@ -5416,7 +5484,7 @@
         <v>673</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>705</v>
@@ -5431,12 +5499,12 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>287</v>
@@ -5445,7 +5513,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5460,21 +5528,21 @@
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>706</v>
@@ -5489,21 +5557,21 @@
         <v>617</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>652</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>707</v>
@@ -5518,12 +5586,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>806</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>679</v>
@@ -5532,7 +5600,7 @@
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5547,12 +5615,12 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>651</v>
+        <v>807</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>680</v>
@@ -5561,10 +5629,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>558</v>
@@ -5573,12 +5641,12 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>652</v>
+        <v>808</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>681</v>
@@ -5596,12 +5664,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>809</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5610,15 +5678,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>717</v>
+        <v>810</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5627,15 +5695,15 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>682</v>
@@ -5644,15 +5712,15 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>739</v>
+        <v>655</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5661,15 +5729,15 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>740</v>
+        <v>656</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5678,15 +5746,15 @@
         <v>674</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>653</v>
+        <v>757</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>683</v>
@@ -5701,9 +5769,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>654</v>
+        <v>758</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5718,9 +5786,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5735,9 +5803,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>656</v>
+        <v>752</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5752,9 +5820,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>762</v>
+        <v>811</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5763,15 +5831,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5780,15 +5848,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5797,12 +5865,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5814,9 +5882,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -5828,9 +5896,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>759</v>
+        <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -5842,20 +5910,20 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>761</v>
+        <v>663</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>664</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -5864,9 +5932,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>755</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -5875,9 +5943,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>813</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>678</v>
@@ -5886,9 +5954,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>814</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>676</v>
@@ -5897,9 +5965,9 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>815</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>677</v>
@@ -5908,9 +5976,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>660</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -5919,181 +5987,276 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>661</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>662</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>657</v>
+        <v>268</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>658</v>
+        <v>269</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>659</v>
+        <v>816</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>817</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>818</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>663</v>
+        <v>244</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>664</v>
+        <v>245</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>760</v>
+        <v>246</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B60" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B61" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B62" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B63" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B64" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B65" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B60" s="1" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B66" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B61" s="1" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B67" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B62" s="1" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B68" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B63" s="1" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B69" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B64" s="1" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B70" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B65" s="1" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B71" s="1" t="s">
         <v>671</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B72" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B73" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B74" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B75" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B76" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B77" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B78" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B79" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B80" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B81" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B82" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B84" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6113,47 +6276,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6328125" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
@@ -6173,7 +6336,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>407</v>
       </c>
@@ -6193,63 +6356,63 @@
         <v>586</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>43623</v>
       </c>
@@ -6279,35 +6442,35 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" style="1"/>
-    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6328125" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -6318,35 +6481,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>602</v>
       </c>
@@ -6360,7 +6523,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>597</v>
       </c>
@@ -6377,108 +6540,108 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="87.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="87" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:3" ht="52.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:3" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
@@ -6489,27 +6652,27 @@
         <v>429</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
@@ -6526,27 +6689,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="19" t="s">
         <v>14</v>
       </c>
@@ -6554,27 +6717,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
         <v>578</v>
       </c>
@@ -6585,17 +6748,17 @@
         <v>589</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="22">
         <v>3</v>
       </c>
@@ -6636,17 +6799,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="9"/>
-    <col min="2" max="2" width="24.90625" style="1"/>
-    <col min="3" max="4" width="24.90625" style="8"/>
-    <col min="5" max="6" width="24.90625" style="1"/>
-    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.90625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="9"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="4" width="24.88671875" style="8"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>434</v>
       </c>
@@ -6681,10 +6844,10 @@
         <v>640</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -6722,618 +6885,618 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
@@ -7356,35 +7519,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>435</v>
       </c>
@@ -7427,7 +7590,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
@@ -7480,7 +7643,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
@@ -7491,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
@@ -7502,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
@@ -7513,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>119</v>
       </c>
@@ -7524,7 +7687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>120</v>
       </c>
@@ -7535,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
@@ -7546,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
@@ -7557,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
@@ -7568,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
@@ -7579,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
@@ -7590,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>126</v>
       </c>
@@ -7601,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>127</v>
       </c>
@@ -7612,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
@@ -7623,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>129</v>
       </c>
@@ -7634,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
@@ -7645,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>131</v>
       </c>
@@ -7656,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
@@ -7667,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>133</v>
       </c>
@@ -7678,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
@@ -7689,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>135</v>
       </c>
@@ -7700,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>136</v>
       </c>
@@ -7711,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>137</v>
       </c>
@@ -7722,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
@@ -7733,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>139</v>
       </c>
@@ -7744,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>140</v>
       </c>
@@ -7755,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>141</v>
       </c>
@@ -7766,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
@@ -7777,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
@@ -7788,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
@@ -7799,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
@@ -7810,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
@@ -7821,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>147</v>
       </c>
@@ -7832,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
@@ -7843,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>149</v>
       </c>
@@ -7854,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
@@ -7865,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>151</v>
       </c>
@@ -7876,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
@@ -7887,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>153</v>
       </c>
@@ -7898,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
@@ -7909,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>155</v>
       </c>
@@ -7920,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>156</v>
       </c>
@@ -7931,7 +8094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>157</v>
       </c>
@@ -7942,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>158</v>
       </c>
@@ -7953,7 +8116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>159</v>
       </c>
@@ -7964,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>160</v>
       </c>
@@ -7975,7 +8138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>161</v>
       </c>
@@ -7986,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
@@ -7997,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>163</v>
       </c>
@@ -8008,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>164</v>
       </c>
@@ -8019,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>165</v>
       </c>
@@ -8030,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>166</v>
       </c>
@@ -8041,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>167</v>
       </c>
@@ -8052,7 +8215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>168</v>
       </c>
@@ -8063,7 +8226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>169</v>
       </c>
@@ -8074,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>170</v>
       </c>
@@ -8085,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
@@ -8096,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>172</v>
       </c>
@@ -8107,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>173</v>
       </c>
@@ -8118,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>174</v>
       </c>
@@ -8129,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>175</v>
       </c>
@@ -8140,7 +8303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>176</v>
       </c>
@@ -8151,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>177</v>
       </c>
@@ -8162,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
@@ -8173,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>179</v>
       </c>
@@ -8184,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>180</v>
       </c>
@@ -8195,7 +8358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>181</v>
       </c>
@@ -8206,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>182</v>
       </c>
@@ -8217,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>183</v>
       </c>
@@ -8228,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>184</v>
       </c>
@@ -8239,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
@@ -8250,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>186</v>
       </c>
@@ -8261,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>187</v>
       </c>
@@ -8272,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>188</v>
       </c>
@@ -8283,7 +8446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>189</v>
       </c>
@@ -8294,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>190</v>
       </c>
@@ -8305,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>191</v>
       </c>
@@ -8316,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>192</v>
       </c>
@@ -8327,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>193</v>
       </c>
@@ -8338,7 +8501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>194</v>
       </c>
@@ -8349,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>195</v>
       </c>
@@ -8360,7 +8523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>196</v>
       </c>
@@ -8371,7 +8534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
@@ -8382,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>198</v>
       </c>
@@ -8393,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>199</v>
       </c>
@@ -8404,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>200</v>
       </c>
@@ -8415,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>201</v>
       </c>
@@ -8426,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>202</v>
       </c>
@@ -8437,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>203</v>
       </c>
@@ -8448,7 +8611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>204</v>
       </c>
@@ -8459,7 +8622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>205</v>
       </c>
@@ -8470,7 +8633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>206</v>
       </c>
@@ -8481,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>207</v>
       </c>
@@ -8492,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>208</v>
       </c>
@@ -8503,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>209</v>
       </c>
@@ -8514,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>210</v>
       </c>
@@ -8525,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>211</v>
       </c>
@@ -8536,7 +8699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>212</v>
       </c>
@@ -8547,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>213</v>
       </c>
@@ -8558,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>214</v>
       </c>
@@ -8569,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>215</v>
       </c>
@@ -8628,7 +8791,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$65</xm:f>
+            <xm:f>Admin!$B$2:$B$84</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
@@ -8653,18 +8816,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>439</v>
       </c>
@@ -8672,7 +8835,7 @@
         <v>540</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>415</v>
@@ -8684,7 +8847,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -8704,502 +8867,502 @@
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
         <v>539</v>
       </c>
@@ -9234,12 +9397,12 @@
       <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="18.90625" style="1"/>
+    <col min="1" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>543</v>
       </c>
@@ -9262,7 +9425,7 @@
         <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>647</v>
@@ -9286,22 +9449,22 @@
         <v>695</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.6">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9351,70 +9514,70 @@
         <v>691</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.6">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.6">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
         <v>351</v>
       </c>
@@ -9485,12 +9648,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.08984375" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>556</v>
       </c>
@@ -9513,7 +9676,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
@@ -9536,12 +9699,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
         <v>365</v>
       </c>
@@ -9576,27 +9739,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.36328125" style="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/JGA_metadata.xlsx
+++ b/JGA_metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9DC800-70F9-44C4-A1A9-8DF3D23940E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9511DF2A-B992-406A-8D8C-D7AA290D769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="827">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4297,12 +4297,6 @@
   </si>
   <si>
     <t>UG 100</t>
-  </si>
-  <si>
-    <t>GENIUS</t>
-  </si>
-  <si>
-    <t>Genapsys Sequencer</t>
   </si>
   <si>
     <t>GS111</t>
@@ -4850,7 +4844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5103,11 +5099,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B84"/>
-    </sheetView>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5591,7 +5585,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>679</v>
@@ -5620,7 +5614,7 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>807</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>680</v>
@@ -5646,7 +5640,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>681</v>
@@ -5669,7 +5663,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5686,7 +5680,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5703,7 +5697,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>256</v>
+        <v>655</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>682</v>
@@ -5720,7 +5714,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5737,7 +5731,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>656</v>
+        <v>757</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5754,7 +5748,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>683</v>
@@ -5771,7 +5765,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>758</v>
+        <v>806</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5788,7 +5782,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5805,7 +5799,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>752</v>
+        <v>811</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5822,7 +5816,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>811</v>
+        <v>753</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5839,7 +5833,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5856,7 +5850,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>812</v>
+        <v>751</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5870,7 +5864,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5884,7 +5878,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6005,7 +5999,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>268</v>
+        <v>759</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>397</v>
@@ -6013,7 +6007,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>269</v>
+        <v>760</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>711</v>
@@ -6021,7 +6015,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>816</v>
+        <v>761</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>398</v>
@@ -6029,7 +6023,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>817</v>
+        <v>268</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>712</v>
@@ -6037,7 +6031,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>759</v>
+        <v>269</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>774</v>
@@ -6045,7 +6039,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>760</v>
+        <v>816</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>775</v>
@@ -6053,7 +6047,7 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>761</v>
+        <v>817</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>776</v>
@@ -6111,151 +6105,141 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>819</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>820</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>821</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>822</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>823</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>824</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>825</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>665</v>
+        <v>821</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
-        <v>666</v>
+        <v>819</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>667</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>668</v>
+        <v>825</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
-        <v>669</v>
+        <v>826</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>670</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B71" s="1" t="s">
-        <v>671</v>
+        <v>260</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B72" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B75" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B77" s="1" t="s">
-        <v>264</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>265</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
-        <v>658</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B81" s="1" t="s">
-        <v>659</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B82" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B83" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B84" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7517,7 +7501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -8791,7 +8777,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$84</xm:f>
+            <xm:f>Admin!$B$2:$B$82</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
